--- a/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="16068" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Ref Des</t>
   </si>
@@ -355,18 +355,6 @@
   </si>
   <si>
     <t>CE07SHSP-SP001-09-PARADJ000</t>
-  </si>
-  <si>
-    <t>CE07SHSP-SP001-01-DOSTAJ001</t>
-  </si>
-  <si>
-    <t>CE07SHSP-SP001-01-DOSTAJ002</t>
-  </si>
-  <si>
-    <t>CE07SHSP-SP001-01-DOSTAJ003</t>
-  </si>
-  <si>
-    <t>CE07SHSP-SP001-02-VELPTJ001</t>
   </si>
   <si>
     <t>Mooring OOIBARCODE</t>
@@ -2327,30 +2315,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2386,9 +2374,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>86</v>
@@ -2409,10 +2397,10 @@
         <v>42290</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J2" s="39">
         <v>87</v>
@@ -2430,93 +2418,93 @@
         <v>-124.56486</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2538,30 +2526,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="57" customWidth="1"/>
     <col min="6" max="6" width="17" style="53" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>59</v>
@@ -2570,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -2585,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2596,12 +2584,12 @@
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>87</v>
@@ -2610,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F3" s="50">
         <v>351</v>
@@ -2624,13 +2612,15 @@
       <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>87</v>
@@ -2639,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" s="50">
         <v>351</v>
@@ -2653,13 +2643,15 @@
       <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>87</v>
@@ -2668,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F5" s="50">
         <v>351</v>
@@ -2682,17 +2674,18 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="L5"/>
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>87</v>
@@ -2701,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F6" s="50">
         <v>351</v>
@@ -2715,8 +2708,10 @@
       <c r="I6" s="43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="27"/>
@@ -2726,13 +2721,15 @@
       <c r="G7" s="20"/>
       <c r="H7" s="25"/>
       <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>87</v>
@@ -2741,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" s="50" t="s">
         <v>65</v>
@@ -2755,13 +2752,15 @@
       <c r="I8" s="29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>87</v>
@@ -2770,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>65</v>
@@ -2782,13 +2781,15 @@
         <v>68</v>
       </c>
       <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>87</v>
@@ -2797,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>65</v>
@@ -2809,13 +2810,15 @@
         <v>20.3</v>
       </c>
       <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>87</v>
@@ -2824,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>65</v>
@@ -2836,13 +2839,14 @@
         <v>69</v>
       </c>
       <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>87</v>
@@ -2851,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>65</v>
@@ -2863,13 +2867,14 @@
         <v>70</v>
       </c>
       <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>87</v>
@@ -2878,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>65</v>
@@ -2890,13 +2895,14 @@
         <v>71</v>
       </c>
       <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>87</v>
@@ -2905,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>65</v>
@@ -2917,13 +2923,14 @@
         <v>72</v>
       </c>
       <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>87</v>
@@ -2932,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" s="50" t="s">
         <v>65</v>
@@ -2944,8 +2951,9 @@
         <v>73</v>
       </c>
       <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="27"/>
@@ -2955,13 +2963,14 @@
       <c r="G16" s="20"/>
       <c r="H16" s="25"/>
       <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>87</v>
@@ -2970,10 +2979,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>7</v>
@@ -2984,13 +2993,14 @@
       <c r="I17" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>87</v>
@@ -2999,10 +3009,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>8</v>
@@ -3013,8 +3023,9 @@
       <c r="I18" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="27"/>
@@ -3024,13 +3035,14 @@
       <c r="G19" s="20"/>
       <c r="H19" s="25"/>
       <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>87</v>
@@ -3039,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" s="50">
         <v>425</v>
@@ -3053,13 +3065,14 @@
       <c r="I20" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>87</v>
@@ -3068,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F21" s="50">
         <v>425</v>
@@ -3082,13 +3095,14 @@
       <c r="I21" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>87</v>
@@ -3097,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="50">
         <v>425</v>
@@ -3111,13 +3125,14 @@
       <c r="I22" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>87</v>
@@ -3126,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="50">
         <v>425</v>
@@ -3140,13 +3155,14 @@
       <c r="I23" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>87</v>
@@ -3155,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="50">
         <v>425</v>
@@ -3169,13 +3185,14 @@
       <c r="I24" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>87</v>
@@ -3184,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" s="50">
         <v>425</v>
@@ -3198,13 +3215,14 @@
       <c r="I25" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>87</v>
@@ -3213,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F26" s="50">
         <v>425</v>
@@ -3227,8 +3245,9 @@
       <c r="I26" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="27"/>
@@ -3238,13 +3257,14 @@
       <c r="G27" s="20"/>
       <c r="H27" s="25"/>
       <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>87</v>
@@ -3253,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28" s="50">
         <v>264</v>
@@ -3265,13 +3285,14 @@
         <v>77</v>
       </c>
       <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>87</v>
@@ -3280,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F29" s="50">
         <v>264</v>
@@ -3292,13 +3313,14 @@
         <v>78</v>
       </c>
       <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>87</v>
@@ -3307,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F30" s="50">
         <v>264</v>
@@ -3319,8 +3341,9 @@
         <v>79</v>
       </c>
       <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="27"/>
@@ -3330,13 +3353,14 @@
       <c r="G31" s="20"/>
       <c r="H31" s="25"/>
       <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>87</v>
@@ -3345,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F32" s="50">
         <v>1206</v>
@@ -3359,13 +3383,14 @@
       <c r="I32" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>87</v>
@@ -3374,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F33" s="50">
         <v>1206</v>
@@ -3388,13 +3413,14 @@
       <c r="I33" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>87</v>
@@ -3403,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F34" s="50">
         <v>1206</v>
@@ -3417,13 +3443,14 @@
       <c r="I34" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>87</v>
@@ -3432,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F35" s="50">
         <v>1206</v>
@@ -3446,13 +3473,14 @@
       <c r="I35" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>87</v>
@@ -3461,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F36" s="50">
         <v>1206</v>
@@ -3475,13 +3503,14 @@
       <c r="I36" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>87</v>
@@ -3490,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F37" s="50">
         <v>1206</v>
@@ -3504,13 +3533,14 @@
       <c r="I37" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>87</v>
@@ -3519,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F38" s="50">
         <v>1206</v>
@@ -3533,13 +3563,14 @@
       <c r="I38" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>87</v>
@@ -3548,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F39" s="50">
         <v>1206</v>
@@ -3562,13 +3593,14 @@
       <c r="I39" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>87</v>
@@ -3577,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F40" s="50">
         <v>1206</v>
@@ -3591,13 +3623,14 @@
       <c r="I40" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>87</v>
@@ -3606,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F41" s="50">
         <v>1206</v>
@@ -3620,8 +3653,9 @@
       <c r="I41" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
@@ -3631,13 +3665,14 @@
       <c r="G42" s="20"/>
       <c r="H42" s="25"/>
       <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>87</v>
@@ -3646,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F43" s="50" t="s">
         <v>81</v>
@@ -3660,13 +3695,14 @@
       <c r="I43" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>87</v>
@@ -3675,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F44" s="50" t="s">
         <v>81</v>
@@ -3689,8 +3725,9 @@
       <c r="I44" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="27"/>
@@ -3700,13 +3737,14 @@
       <c r="G45" s="20"/>
       <c r="H45" s="25"/>
       <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>87</v>
@@ -3715,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F46" s="50">
         <v>434</v>
@@ -3727,13 +3765,14 @@
         <v>4076</v>
       </c>
       <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>87</v>
@@ -3742,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F47" s="50">
         <v>434</v>
@@ -3754,13 +3793,14 @@
         <v>2940</v>
       </c>
       <c r="I47" s="20"/>
-    </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>87</v>
@@ -3769,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F48" s="50">
         <v>434</v>
@@ -3781,8 +3821,9 @@
         <v>1.3589</v>
       </c>
       <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3792,46 +3833,47 @@
       <c r="G49" s="32"/>
       <c r="H49" s="33"/>
       <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="23" t="s">
+      <c r="J50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K50" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="55">
+      <c r="L50" s="55">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="52" t="s">
+      <c r="M50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N50" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="20"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="20"/>
+    </row>
+    <row r="51" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="53"/>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="53"/>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="53"/>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="53"/>
@@ -3856,9 +3898,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3962,7 +4004,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4066,7 +4108,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4170,7 +4212,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4274,7 +4316,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4378,7 +4420,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4482,7 +4524,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4586,7 +4628,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4690,7 +4732,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4794,7 +4836,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4898,7 +4940,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -5002,7 +5044,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5106,7 +5148,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5210,7 +5252,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5314,7 +5356,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5418,7 +5460,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5522,7 +5564,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5626,7 +5668,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5730,7 +5772,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5834,7 +5876,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5938,7 +5980,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6042,7 +6084,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6146,7 +6188,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6250,7 +6292,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6354,7 +6396,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6458,7 +6500,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6562,7 +6604,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6666,7 +6708,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6770,7 +6812,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6874,7 +6916,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6978,7 +7020,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7082,7 +7124,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7186,7 +7228,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7290,7 +7332,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7394,7 +7436,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7498,7 +7540,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7602,7 +7644,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7706,7 +7748,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7810,7 +7852,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7914,7 +7956,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -8018,7 +8060,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8122,7 +8164,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8226,7 +8268,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8330,7 +8372,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8434,7 +8476,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8538,7 +8580,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8642,7 +8684,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8746,7 +8788,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8850,7 +8892,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8954,7 +8996,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9058,7 +9100,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9162,7 +9204,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9266,7 +9308,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9370,7 +9412,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9474,7 +9516,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9578,7 +9620,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9682,7 +9724,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9786,7 +9828,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9890,7 +9932,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9994,7 +10036,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10098,7 +10140,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10202,7 +10244,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10306,7 +10348,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10410,7 +10452,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10514,7 +10556,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10618,7 +10660,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10722,7 +10764,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10826,7 +10868,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10930,7 +10972,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11034,7 +11076,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11138,7 +11180,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11242,7 +11284,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11346,7 +11388,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11450,7 +11492,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11554,7 +11596,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11658,7 +11700,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11762,7 +11804,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11866,7 +11908,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11970,7 +12012,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12074,7 +12116,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12178,7 +12220,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12282,7 +12324,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12386,7 +12428,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12490,7 +12532,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12594,7 +12636,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12698,7 +12740,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12820,9 +12862,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12926,7 +12968,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -13030,7 +13072,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13134,7 +13176,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13238,7 +13280,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13342,7 +13384,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13446,7 +13488,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13550,7 +13592,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13654,7 +13696,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13758,7 +13800,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13862,7 +13904,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13966,7 +14008,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14070,7 +14112,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14174,7 +14216,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14278,7 +14320,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14382,7 +14424,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14486,7 +14528,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14590,7 +14632,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14694,7 +14736,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14798,7 +14840,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14902,7 +14944,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -15006,7 +15048,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15110,7 +15152,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15214,7 +15256,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15318,7 +15360,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15422,7 +15464,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15526,7 +15568,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15630,7 +15672,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15734,7 +15776,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15838,7 +15880,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15942,7 +15984,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16046,7 +16088,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16150,7 +16192,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16254,7 +16296,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16358,7 +16400,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16462,7 +16504,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16566,7 +16608,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16670,7 +16712,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16774,7 +16816,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16878,7 +16920,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16982,7 +17024,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17086,7 +17128,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17190,7 +17232,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17294,7 +17336,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17398,7 +17440,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17502,7 +17544,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17606,7 +17648,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17710,7 +17752,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17814,7 +17856,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17918,7 +17960,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -18022,7 +18064,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18126,7 +18168,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18230,7 +18272,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18334,7 +18376,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18438,7 +18480,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18542,7 +18584,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18646,7 +18688,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18750,7 +18792,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18854,7 +18896,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18958,7 +19000,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19062,7 +19104,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19166,7 +19208,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19270,7 +19312,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19374,7 +19416,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19478,7 +19520,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19582,7 +19624,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19686,7 +19728,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19790,7 +19832,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19894,7 +19936,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19998,7 +20040,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20102,7 +20144,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20206,7 +20248,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20310,7 +20352,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20414,7 +20456,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20518,7 +20560,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20622,7 +20664,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20726,7 +20768,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20830,7 +20872,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20934,7 +20976,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21038,7 +21080,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21142,7 +21184,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21246,7 +21288,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21350,7 +21392,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21454,7 +21496,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21558,7 +21600,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21662,7 +21704,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -2315,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2526,10 +2526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,7 +3823,7 @@
       <c r="I48" s="20"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3835,45 +3835,45 @@
       <c r="I49" s="32"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="34" t="s">
+    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J50" t="s">
+      <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="C50" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="55">
+      <c r="D50" s="55">
         <v>2</v>
       </c>
-      <c r="M50" t="s">
+      <c r="E50" t="s">
         <v>99</v>
       </c>
-      <c r="N50" s="52" t="s">
+      <c r="F50" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="O50" s="20"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="20"/>
-    </row>
-    <row r="51" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="20"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="53"/>
     </row>
-    <row r="52" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="53"/>
     </row>
-    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="53"/>
     </row>
-    <row r="54" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="53"/>
